--- a/Final BoM Internal Tracker.xlsx
+++ b/Final BoM Internal Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravigandhi/Documents/GitHub/ECE1895-DesignProject2-RRRK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D57021-9128-7F49-9DF3-66A1FE237E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E56F3-D09C-F246-9D35-B30F86655336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{131D5302-907F-8C44-B725-F7ACF1A6B844}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t xml:space="preserve">Final BoM for Bop-it! Project </t>
   </si>
@@ -60,10 +60,88 @@
     <t>ATMEGA328P</t>
   </si>
   <si>
-    <t>Counting for Hex Display</t>
-  </si>
-  <si>
     <t>DigiKey</t>
+  </si>
+  <si>
+    <t>IC-74LS47</t>
+  </si>
+  <si>
+    <t>Binary to Decimal for Hex</t>
+  </si>
+  <si>
+    <t>Have</t>
+  </si>
+  <si>
+    <t>Adafruit Ultrasonic Sensor</t>
+  </si>
+  <si>
+    <t>To Order</t>
+  </si>
+  <si>
+    <t>DigiKey: https://www.digikey.com/en/products/detail/adafruit-industries-llc/3942/9658069?s=N4IgTCBcDaIIwFYwA4C0YDsc6oHIBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Battery Clip</t>
+  </si>
+  <si>
+    <t>Amazon: https://www.amazon.com/Parts-Express-Battery-Clip-Pack/dp/B01IFP0N3U/ref=asc_df_B01IFP0N3U/?tag=hyprod-20&amp;linkCode=df0&amp;hvadid=198057711065&amp;hvpos=&amp;hvnetw=g&amp;hvrand=9106645079688467446&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9005925&amp;hvtargid=pla-350869377063&amp;psc=1</t>
+  </si>
+  <si>
+    <t>9V Battery</t>
+  </si>
+  <si>
+    <t>Amazon: https://www.amazon.com/VONIKO-9V-Batteries-Alkaline-Battery/dp/B086YRN8SQ/ref=sxin_13_pa_sp_search_thematic_sspa?crid=3AWUXURGWQXQC&amp;cv_ct_cx=9v+alkaline+battery&amp;dchild=1&amp;keywords=9v+alkaline+battery&amp;pd_rd_i=B086YRN8SQ&amp;pd_rd_r=2f6270ad-a6df-4332-94e2-41b8a571fd1d&amp;pd_rd_w=Pnpi5&amp;pd_rd_wg=NRA6X&amp;pf_rd_p=f21da57e-06e4-46a5-9148-e2dea2e78384&amp;pf_rd_r=WQV9NXDDRSPWW92X3EKA&amp;qid=1635717412&amp;sprefix=9v+alkaline+battery%2Caps%2C43&amp;sr=1-4-a73d1c8c-2fd2-4f19-aa41-2df022bcb241-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyM0gzQ04wVlpLSUQ4JmVuY3J5cHRlZElkPUEwNTg1NDE1MjVHV1I4UTNFWDYwRCZlbmNyeXB0ZWRBZElkPUEwNDU1NTI5MlE2OTJWMkFDTk9HTiZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
+  </si>
+  <si>
+    <t>Counting for Hex Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker </t>
+  </si>
+  <si>
+    <t>Backups</t>
+  </si>
+  <si>
+    <t>Hex Displays</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Analog Joy Stick</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>LEDS</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Interactive #2</t>
+  </si>
+  <si>
+    <t>Interactive #3</t>
+  </si>
+  <si>
+    <t>Interactive #1</t>
+  </si>
+  <si>
+    <t>SD Card Module + SD Card</t>
   </si>
 </sst>
 </file>
@@ -112,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -120,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF3A4E-F907-4E46-9E0A-7587D768DB8B}">
-  <dimension ref="A2:F58"/>
+  <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +527,7 @@
     <col min="1" max="1" width="3.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
@@ -490,10 +571,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -504,15 +588,27 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" ref="A8:A58" si="0">IF(B8&lt;&gt;"", A7+1, "")</f>
+        <f t="shared" ref="A8:A57" si="0">IF(B8&lt;&gt;"", A7+1, "")</f>
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -520,142 +616,292 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -807,12 +1053,6 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
